--- a/security-web/src/main/resources/excel/主要负责人、安全生产管理人员培训台账导入模板.xlsx
+++ b/security-web/src/main/resources/excel/主要负责人、安全生产管理人员培训台账导入模板.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307A05A7-C62B-4201-95BC-0DE45628CCA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="14401" windowHeight="8273" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>身份证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,13 +65,17 @@
   </si>
   <si>
     <t>厂矿1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>522428199302021515</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -118,15 +123,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -145,7 +148,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -220,6 +223,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -255,6 +275,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -430,25 +467,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="20.265625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="22.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.46484375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,14 +515,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>522222</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>40941</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -506,14 +544,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>522333</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>40941</v>
       </c>
       <c r="D3" s="2" t="s">

--- a/security-web/src/main/resources/excel/主要负责人、安全生产管理人员培训台账导入模板.xlsx
+++ b/security-web/src/main/resources/excel/主要负责人、安全生产管理人员培训台账导入模板.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307A05A7-C62B-4201-95BC-0DE45628CCA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="14401" windowHeight="8273" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>身份证号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,17 +64,13 @@
   </si>
   <si>
     <t>厂矿1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>522428199302021515</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -123,13 +118,15 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -148,7 +145,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -223,23 +220,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -275,23 +255,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -467,26 +430,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.73046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.86328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="22.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.46484375" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.06640625" style="3"/>
+    <col min="1" max="1" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,14 +477,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>522222</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>40941</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -544,14 +506,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>522333</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>40941</v>
       </c>
       <c r="D3" s="2" t="s">
